--- a/ReadingListInformation/CBRO/Marvel/Events/XLSXandCSV/[Marvel] Dead No More- The Clone Conspiracy (WEB-CBRO)-USER.xlsx
+++ b/ReadingListInformation/CBRO/Marvel/Events/XLSXandCSV/[Marvel] Dead No More- The Clone Conspiracy (WEB-CBRO)-USER.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="66">
   <si>
     <t>SeriesName</t>
   </si>
@@ -49,6 +49,9 @@
     <t>CV Issue Number</t>
   </si>
   <si>
+    <t>CV Series Publisher</t>
+  </si>
+  <si>
     <t>CV Cover Image</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>Days Between Issues</t>
   </si>
   <si>
-    <t>CV Series Publisher</t>
-  </si>
-  <si>
     <t>Amazing Spider-Man</t>
   </si>
   <si>
@@ -76,6 +76,54 @@
     <t>Dead No More: The Clone Conspiracy Omega</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>Issue</t>
   </si>
   <si>
@@ -85,52 +133,10 @@
     <t>The Amazing Spider-Man</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>The Clone Conspiracy Omega</t>
+  </si>
+  <si>
+    <t>Marvel</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -205,7 +211,7 @@
     <t>https://comicvine.gamespot.com/prowler-5/4000-582539/</t>
   </si>
   <si>
-    <t>Marvel</t>
+    <t>https://comicvine.gamespot.com/issue/4000-583715/</t>
   </si>
 </sst>
 </file>
@@ -638,17 +644,17 @@
       <c r="C2" s="2">
         <v>2015</v>
       </c>
-      <c r="D2" s="2">
-        <v>16</v>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3">
         <v>42674</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2">
         <v>85076</v>
@@ -657,25 +663,25 @@
         <v>543745</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2">
         <v>2015</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="4">
+        <v>41</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="4">
         <v>0</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -688,17 +694,17 @@
       <c r="C3" s="2">
         <v>2015</v>
       </c>
-      <c r="D3" s="2">
-        <v>17</v>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3">
         <v>42674</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2">
         <v>85076</v>
@@ -707,25 +713,25 @@
         <v>547268</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2">
         <v>2015</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="4">
         <v>30</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -738,17 +744,17 @@
       <c r="C4" s="2">
         <v>2015</v>
       </c>
-      <c r="D4" s="2">
-        <v>18</v>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3">
         <v>42704</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2">
         <v>85076</v>
@@ -757,25 +763,25 @@
         <v>550344</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2015</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="2">
-        <v>2015</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="4">
+        <v>41</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="4">
         <v>31</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -788,17 +794,17 @@
       <c r="C5" s="2">
         <v>2015</v>
       </c>
-      <c r="D5" s="2">
-        <v>19</v>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F5" s="3">
         <v>42735</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2">
         <v>85076</v>
@@ -807,25 +813,25 @@
         <v>552152</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K5" s="2">
         <v>2015</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="4">
+        <v>41</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="4">
         <v>0</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -838,17 +844,17 @@
       <c r="C6" s="2">
         <v>2016</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3">
         <v>42735</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2">
         <v>94788</v>
@@ -863,19 +869,19 @@
         <v>2016</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="4">
+        <v>41</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="4">
         <v>0</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -888,17 +894,17 @@
       <c r="C7" s="2">
         <v>2015</v>
       </c>
-      <c r="D7" s="2">
-        <v>20</v>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F7" s="3">
         <v>42735</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2">
         <v>85076</v>
@@ -907,25 +913,25 @@
         <v>553945</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2">
         <v>2015</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="4">
+        <v>41</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="4">
         <v>31</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -938,17 +944,17 @@
       <c r="C8" s="2">
         <v>2016</v>
       </c>
-      <c r="D8" s="2">
-        <v>2</v>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F8" s="3">
         <v>42766</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H8" s="2">
         <v>94788</v>
@@ -963,19 +969,19 @@
         <v>2016</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="4">
+        <v>41</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="4">
         <v>0</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -988,17 +994,17 @@
       <c r="C9" s="2">
         <v>2015</v>
       </c>
-      <c r="D9" s="2">
-        <v>21</v>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3">
         <v>42766</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2">
         <v>85076</v>
@@ -1007,25 +1013,25 @@
         <v>558408</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K9" s="2">
         <v>2015</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="4">
+        <v>41</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="4">
         <v>0</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1038,17 +1044,17 @@
       <c r="C10" s="2">
         <v>2016</v>
       </c>
-      <c r="D10" s="2">
-        <v>14</v>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F10" s="3">
         <v>42766</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2">
         <v>86251</v>
@@ -1063,19 +1069,19 @@
         <v>2015</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="4">
+        <v>41</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="4">
         <v>28</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1088,17 +1094,17 @@
       <c r="C11" s="2">
         <v>2016</v>
       </c>
-      <c r="D11" s="2">
-        <v>15</v>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F11" s="3">
         <v>42794</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H11" s="2">
         <v>86251</v>
@@ -1113,19 +1119,19 @@
         <v>2015</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" s="4">
+        <v>41</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="4">
         <v>0</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1138,17 +1144,17 @@
       <c r="C12" s="2">
         <v>2016</v>
       </c>
-      <c r="D12" s="2">
-        <v>3</v>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F12" s="3">
         <v>42794</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H12" s="2">
         <v>94788</v>
@@ -1163,19 +1169,19 @@
         <v>2016</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12" s="4">
+        <v>41</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="4">
         <v>0</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1188,17 +1194,17 @@
       <c r="C13" s="2">
         <v>2015</v>
       </c>
-      <c r="D13" s="2">
-        <v>22</v>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F13" s="3">
         <v>42794</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H13" s="2">
         <v>85076</v>
@@ -1207,25 +1213,25 @@
         <v>569323</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K13" s="2">
         <v>2015</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="4">
-        <v>59</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>63</v>
+        <v>41</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="4">
+        <v>-59</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1238,17 +1244,17 @@
       <c r="C14" s="2">
         <v>2016</v>
       </c>
-      <c r="D14" s="2">
-        <v>1</v>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F14" s="3">
         <v>42735</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H14" s="2">
         <v>95232</v>
@@ -1263,19 +1269,19 @@
         <v>2016</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14" s="4">
+        <v>41</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="4">
         <v>31</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1288,17 +1294,17 @@
       <c r="C15" s="2">
         <v>2016</v>
       </c>
-      <c r="D15" s="2">
-        <v>2</v>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F15" s="3">
         <v>42766</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H15" s="2">
         <v>95232</v>
@@ -1313,19 +1319,19 @@
         <v>2016</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O15" s="4">
+        <v>41</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="4">
         <v>28</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1338,17 +1344,17 @@
       <c r="C16" s="2">
         <v>2016</v>
       </c>
-      <c r="D16" s="2">
-        <v>3</v>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F16" s="3">
         <v>42794</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H16" s="2">
         <v>95232</v>
@@ -1363,19 +1369,19 @@
         <v>2016</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O16" s="4">
+        <v>41</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="4">
         <v>31</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1388,17 +1394,17 @@
       <c r="C17" s="2">
         <v>2016</v>
       </c>
-      <c r="D17" s="2">
-        <v>16</v>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F17" s="3">
         <v>42825</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H17" s="2">
         <v>86251</v>
@@ -1413,19 +1419,19 @@
         <v>2015</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O17" s="4">
+        <v>41</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="4">
         <v>0</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1438,17 +1444,17 @@
       <c r="C18" s="2">
         <v>2016</v>
       </c>
-      <c r="D18" s="2">
-        <v>4</v>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F18" s="3">
         <v>42825</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H18" s="2">
         <v>94788</v>
@@ -1463,19 +1469,19 @@
         <v>2016</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O18" s="4">
+        <v>41</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" s="4">
         <v>0</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1488,17 +1494,17 @@
       <c r="C19" s="2">
         <v>2015</v>
       </c>
-      <c r="D19" s="2">
-        <v>23</v>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F19" s="3">
         <v>42825</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H19" s="2">
         <v>85076</v>
@@ -1507,25 +1513,25 @@
         <v>576613</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K19" s="2">
         <v>2015</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O19" s="4">
+        <v>41</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" s="4">
         <v>0</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1538,17 +1544,17 @@
       <c r="C20" s="2">
         <v>2016</v>
       </c>
-      <c r="D20" s="2">
-        <v>4</v>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F20" s="3">
         <v>42825</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H20" s="2">
         <v>95232</v>
@@ -1563,19 +1569,19 @@
         <v>2016</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O20" s="4">
+        <v>41</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="4">
         <v>30</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1588,17 +1594,17 @@
       <c r="C21" s="2">
         <v>2016</v>
       </c>
-      <c r="D21" s="2">
-        <v>5</v>
+      <c r="D21" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F21" s="3">
         <v>42855</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H21" s="2">
         <v>94788</v>
@@ -1613,19 +1619,19 @@
         <v>2016</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O21" s="4">
+        <v>41</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="4">
         <v>0</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1638,17 +1644,17 @@
       <c r="C22" s="2">
         <v>2016</v>
       </c>
-      <c r="D22" s="2">
-        <v>17</v>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F22" s="3">
         <v>42855</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H22" s="2">
         <v>86251</v>
@@ -1663,19 +1669,19 @@
         <v>2015</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O22" s="4">
+        <v>41</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" s="4">
         <v>0</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1688,17 +1694,17 @@
       <c r="C23" s="2">
         <v>2015</v>
       </c>
-      <c r="D23" s="2">
-        <v>24</v>
+      <c r="D23" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F23" s="3">
         <v>42855</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H23" s="2">
         <v>85076</v>
@@ -1707,25 +1713,25 @@
         <v>582516</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K23" s="2">
         <v>2015</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O23" s="4">
+        <v>41</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="4">
         <v>0</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1738,17 +1744,17 @@
       <c r="C24" s="2">
         <v>2016</v>
       </c>
-      <c r="D24" s="2">
-        <v>5</v>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F24" s="3">
         <v>42855</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H24" s="2">
         <v>95232</v>
@@ -1763,19 +1769,19 @@
         <v>2016</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O24" s="4">
-        <v>120</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>63</v>
+        <v>41</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P24" s="4">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1788,72 +1794,72 @@
       <c r="C25" s="2">
         <v>2017</v>
       </c>
-      <c r="D25" s="2">
-        <v>1</v>
+      <c r="D25" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F25" s="3">
-        <v>42735</v>
+        <v>42886</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H25" s="2">
-        <v>94788</v>
+        <v>99245</v>
       </c>
       <c r="I25" s="2">
-        <v>553001</v>
+        <v>583715</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K25" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O25" s="4">
+        <v>41</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="4">
         <v>0</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
-    <hyperlink ref="N6" r:id="rId5"/>
-    <hyperlink ref="N7" r:id="rId6"/>
-    <hyperlink ref="N8" r:id="rId7"/>
-    <hyperlink ref="N9" r:id="rId8"/>
-    <hyperlink ref="N10" r:id="rId9"/>
-    <hyperlink ref="N11" r:id="rId10"/>
-    <hyperlink ref="N12" r:id="rId11"/>
-    <hyperlink ref="N13" r:id="rId12"/>
-    <hyperlink ref="N14" r:id="rId13"/>
-    <hyperlink ref="N15" r:id="rId14"/>
-    <hyperlink ref="N16" r:id="rId15"/>
-    <hyperlink ref="N17" r:id="rId16"/>
-    <hyperlink ref="N18" r:id="rId17"/>
-    <hyperlink ref="N19" r:id="rId18"/>
-    <hyperlink ref="N20" r:id="rId19"/>
-    <hyperlink ref="N21" r:id="rId20"/>
-    <hyperlink ref="N22" r:id="rId21"/>
-    <hyperlink ref="N23" r:id="rId22"/>
-    <hyperlink ref="N24" r:id="rId23"/>
-    <hyperlink ref="N25" r:id="rId24"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O6" r:id="rId5"/>
+    <hyperlink ref="O7" r:id="rId6"/>
+    <hyperlink ref="O8" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
+    <hyperlink ref="O10" r:id="rId9"/>
+    <hyperlink ref="O11" r:id="rId10"/>
+    <hyperlink ref="O12" r:id="rId11"/>
+    <hyperlink ref="O13" r:id="rId12"/>
+    <hyperlink ref="O14" r:id="rId13"/>
+    <hyperlink ref="O15" r:id="rId14"/>
+    <hyperlink ref="O16" r:id="rId15"/>
+    <hyperlink ref="O17" r:id="rId16"/>
+    <hyperlink ref="O18" r:id="rId17"/>
+    <hyperlink ref="O19" r:id="rId18"/>
+    <hyperlink ref="O20" r:id="rId19"/>
+    <hyperlink ref="O21" r:id="rId20"/>
+    <hyperlink ref="O22" r:id="rId21"/>
+    <hyperlink ref="O23" r:id="rId22"/>
+    <hyperlink ref="O24" r:id="rId23"/>
+    <hyperlink ref="O25" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
